--- a/Data Science Journey Tracker.xlsx
+++ b/Data Science Journey Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PA\Documents\datascience\datascience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27618545-90F7-49FB-8F4B-BFC5A021D1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF06B2B-6F7B-4A4C-84E6-DC737ACE34CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{4FEAEA80-D5A9-4F4F-8015-98DD1BB07A66}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="412">
   <si>
     <t>Task</t>
   </si>
@@ -1255,13 +1255,40 @@
   </si>
   <si>
     <t>Time (H)</t>
+  </si>
+  <si>
+    <t>Part 1</t>
+  </si>
+  <si>
+    <t>Part 1/2/3/4</t>
+  </si>
+  <si>
+    <t>Part 2</t>
+  </si>
+  <si>
+    <t>Part 3</t>
+  </si>
+  <si>
+    <t>Part 4</t>
+  </si>
+  <si>
+    <t>Python Bootcamp Material</t>
+  </si>
+  <si>
+    <t>0,1,2</t>
+  </si>
+  <si>
+    <t>Approach</t>
+  </si>
+  <si>
+    <t>Watch the Krish Naik video, follow along, strengthen with Bootcamp exercises &gt; finalise with Exam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1326,8 +1353,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1337,6 +1370,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1406,7 +1445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1436,6 +1475,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1747,9 +1787,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1787,7 +1827,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1893,7 +1933,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2035,7 +2075,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3637,7 +3677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91708F1-3D85-4DE9-AAF5-1B39128C94D9}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -3735,11 +3775,11 @@
       </c>
       <c r="B3" s="11">
         <f ca="1">COUNTIF(INDIRECT("'"&amp;$A3&amp;"'!$D:$D"),B$1)</f>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="11">
         <f ca="1">SUMIF(INDIRECT("'"&amp;$A3&amp;"'!$D:$D"),B$1,INDIRECT("'"&amp;$A3&amp;"'!$C:$C"))</f>
-        <v>708.5</v>
+        <v>655</v>
       </c>
       <c r="D3" s="11">
         <f ca="1">COUNTIF(INDIRECT("'"&amp;$A3&amp;"'!$D:$D"),D$1)</f>
@@ -3759,19 +3799,19 @@
       </c>
       <c r="H3" s="11">
         <f ca="1">COUNTIF(INDIRECT("'"&amp;$A3&amp;"'!$D:$D"),H$1)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" s="11">
         <f ca="1">SUMIF(INDIRECT("'"&amp;$A3&amp;"'!$D:$D"),H$1,INDIRECT("'"&amp;$A3&amp;"'!$C:$C"))</f>
-        <v>0</v>
+        <v>53.5</v>
       </c>
       <c r="J3" s="11">
         <f t="shared" ref="J3:J11" ca="1" si="0">SUM(B3,D3)</f>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K3" s="11">
         <f t="shared" ref="K3:K11" ca="1" si="1">SUM(C3,E3)</f>
-        <v>708.5</v>
+        <v>655</v>
       </c>
       <c r="L3" s="11">
         <f t="shared" ref="L3:L8" ca="1" si="2">SUM(B3,D3,F3,H3)</f>
@@ -3787,7 +3827,7 @@
       </c>
       <c r="O3" s="11">
         <f t="shared" ref="O3:O8" ca="1" si="4">ROUND(((H3+F3)/L3)*100,2)</f>
-        <v>0</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4292,11 +4332,11 @@
       </c>
       <c r="B12" s="8">
         <f ca="1">SUM(B3:B11)</f>
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C12" s="8">
         <f t="shared" ref="C12:N12" ca="1" si="16">SUM(C3:C11)</f>
-        <v>8534.2999999999993</v>
+        <v>8480.7999999999993</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" ca="1" si="16"/>
@@ -4316,19 +4356,19 @@
       </c>
       <c r="H12" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>53.5</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>8534.2999999999993</v>
+        <v>8480.7999999999993</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" ca="1" si="16"/>
@@ -4344,7 +4384,7 @@
       </c>
       <c r="O12" s="11">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4506,799 +4546,1048 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CEAD00-AFD0-45D1-9051-9C1F51355BCE}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="91.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="str">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="str">
         <f>HYPERLINK(Playlist!C2, Playlist!$A$1)</f>
         <v>SN</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="E2" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>29.2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="D3" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="D4" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>5.2</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="D5" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" t="s">
+        <v>403</v>
+      </c>
+      <c r="F5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>21.8</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="D6" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E6" t="s">
+        <v>405</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>16.100000000000001</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="D7" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>26.7</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="D8" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" t="s">
+        <v>405</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <v>16.8</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="D9" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E9" t="s">
+        <v>405</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>29.5</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="D10" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E10" t="s">
+        <v>405</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>19.5</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="D11" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E11" t="s">
+        <v>405</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <v>25.9</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="D12" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E12" t="s">
+        <v>405</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2">
         <v>21.7</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="D13" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E13" t="s">
+        <v>405</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <v>10.9</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="D14" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E14" t="s">
+        <v>405</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="2">
         <v>10.1</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="D15" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E15" t="s">
+        <v>405</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>31.8</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="D16" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E16" t="s">
+        <v>405</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <v>13.7</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="D17" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E17" t="s">
+        <v>405</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>6.1</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="D18" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E18" t="s">
+        <v>405</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2">
         <v>4.8</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="D19" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E19" t="s">
+        <v>405</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2">
         <v>4</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="D20" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E20" t="s">
+        <v>405</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C21" s="2">
         <v>8.1</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="D21" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E21" t="s">
+        <v>405</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="2">
         <v>10.4</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="D22" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E22" t="s">
+        <v>405</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C23" s="2">
         <v>12</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="D23" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E23" t="s">
+        <v>405</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>5</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="D24" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E24" t="s">
+        <v>405</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="2">
         <v>14.5</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="D25" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="2">
         <v>20.5</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="D26" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C27" s="2">
         <v>9</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="D27" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E27" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C28" s="2">
         <v>11.7</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="D28" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E28" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C29" s="2">
         <v>10.1</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="D29" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E29" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C30" s="2">
         <v>6.1</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="D30" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E30" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="2">
         <v>16.3</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="D31" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E31" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C32" s="2">
         <v>17</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="D32" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E32" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C33" s="2">
         <v>6.9</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="D33" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E33" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C34" s="2">
         <v>5.5</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="D34" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C35" s="2">
         <v>12.8</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="D35" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E35" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C36" s="2">
         <v>12.1</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="D36" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E36" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C37" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="D37" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E37" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C38" s="2">
         <v>9.4</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="D38" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E38" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C39" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="D39" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E39" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C40" s="2">
         <v>18.5</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="D40" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E40" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C41" s="2">
         <v>23.5</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="D41" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E41" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C42" s="2">
         <v>19.8</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="D42" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E42" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C43" s="2">
         <v>14.2</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="D43" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E43" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C44" s="2">
         <v>13.9</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="D44" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E44" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C45" s="2">
         <v>8.1</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="D45" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E45" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C46" s="2">
         <v>14.2</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="D46" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E46" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C47" s="2">
         <v>6.8</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="D47" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E47" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C48" s="2">
         <v>14.5</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="D48" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E48" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C49" s="2">
         <v>8.9</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="D49" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E49" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C50" s="2">
         <v>6.2</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="D50" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E50" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C51" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="D51" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E51" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C52" s="2">
         <v>12.3</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="D52" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E52" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C53" s="2">
         <v>6.8</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="D53" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C54" s="2">
         <v>11.8</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="D54" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E54" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1">
-        <f>SUM(C2:C53)</f>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1">
+        <f>SUM(C3:C54)</f>
         <v>708.5</v>
       </c>
-      <c r="D54" s="1">
-        <f>COUNTIF(Python!D2:D53,Playlist!$I$5)</f>
-        <v>0</v>
+      <c r="D55" s="1">
+        <f>COUNTIF(Python!D3:D54,Playlist!$I$5)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D53 D55:D1048576">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D54 D56:D1048576 E2:F2">
     <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="Start">
-      <formula>NOT(ISERROR(SEARCH("Start",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Start",D2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",D2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Progress Tracker" prompt="This cell is to track the set of videos completed._x000a_" xr:uid="{BA437ABB-A94D-43F5-8F94-CBC0657F53BC}">
           <x14:formula1>
             <xm:f>Playlist!$I$2:$I$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D53</xm:sqref>
+          <xm:sqref>D3:D54</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Data Science Journey Tracker.xlsx
+++ b/Data Science Journey Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PA\Documents\datascience\datascience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF06B2B-6F7B-4A4C-84E6-DC737ACE34CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7DFF98-B19D-42B6-9724-EFDA4BA98EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{4FEAEA80-D5A9-4F4F-8015-98DD1BB07A66}"/>
+    <workbookView xWindow="12210" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4FEAEA80-D5A9-4F4F-8015-98DD1BB07A66}"/>
   </bookViews>
   <sheets>
     <sheet name="Playlist" sheetId="5" r:id="rId1"/>
@@ -1463,6 +1463,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1475,7 +1476,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3687,46 +3687,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="str">
+      <c r="B1" s="15" t="str">
         <f>Playlist!I2</f>
         <v>Yet to Start</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14" t="str">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="str">
         <f>Playlist!I3</f>
         <v>In Progress</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="str">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="str">
         <f>Playlist!I4</f>
         <v>On Hold</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="str">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="str">
         <f>Playlist!I5</f>
         <v>Completed</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="M1" s="14"/>
+      <c r="M1" s="15"/>
       <c r="N1" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="14" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="16"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="8" t="s">
         <v>296</v>
       </c>
@@ -3766,7 +3766,7 @@
       <c r="N2" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="O2" s="13"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="str">
@@ -3775,11 +3775,11 @@
       </c>
       <c r="B3" s="11">
         <f ca="1">COUNTIF(INDIRECT("'"&amp;$A3&amp;"'!$D:$D"),B$1)</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="11">
         <f ca="1">SUMIF(INDIRECT("'"&amp;$A3&amp;"'!$D:$D"),B$1,INDIRECT("'"&amp;$A3&amp;"'!$C:$C"))</f>
-        <v>655</v>
+        <v>617.1</v>
       </c>
       <c r="D3" s="11">
         <f ca="1">COUNTIF(INDIRECT("'"&amp;$A3&amp;"'!$D:$D"),D$1)</f>
@@ -3799,19 +3799,19 @@
       </c>
       <c r="H3" s="11">
         <f ca="1">COUNTIF(INDIRECT("'"&amp;$A3&amp;"'!$D:$D"),H$1)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I3" s="11">
         <f ca="1">SUMIF(INDIRECT("'"&amp;$A3&amp;"'!$D:$D"),H$1,INDIRECT("'"&amp;$A3&amp;"'!$C:$C"))</f>
-        <v>53.5</v>
+        <v>91.4</v>
       </c>
       <c r="J3" s="11">
         <f t="shared" ref="J3:J11" ca="1" si="0">SUM(B3,D3)</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K3" s="11">
         <f t="shared" ref="K3:K11" ca="1" si="1">SUM(C3,E3)</f>
-        <v>655</v>
+        <v>617.1</v>
       </c>
       <c r="L3" s="11">
         <f t="shared" ref="L3:L8" ca="1" si="2">SUM(B3,D3,F3,H3)</f>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="O3" s="11">
         <f t="shared" ref="O3:O8" ca="1" si="4">ROUND(((H3+F3)/L3)*100,2)</f>
-        <v>5.77</v>
+        <v>9.6199999999999992</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4332,11 +4332,11 @@
       </c>
       <c r="B12" s="8">
         <f ca="1">SUM(B3:B11)</f>
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C12" s="8">
         <f t="shared" ref="C12:N12" ca="1" si="16">SUM(C3:C11)</f>
-        <v>8480.7999999999993</v>
+        <v>8442.9</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" ca="1" si="16"/>
@@ -4356,19 +4356,19 @@
       </c>
       <c r="H12" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>53.5</v>
+        <v>91.4</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>8480.7999999999993</v>
+        <v>8442.9</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" ca="1" si="16"/>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="O12" s="11">
         <f t="shared" ca="1" si="15"/>
-        <v>0.68</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4549,7 +4549,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4563,16 +4563,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
@@ -4666,7 +4666,7 @@
         <v>21.8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="E6" t="s">
         <v>405</v>
@@ -4686,7 +4686,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="E7" t="s">
         <v>405</v>
@@ -5091,6 +5091,9 @@
       <c r="E27" t="s">
         <v>406</v>
       </c>
+      <c r="F27">
+        <v>17</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
@@ -5108,6 +5111,9 @@
       <c r="E28" t="s">
         <v>406</v>
       </c>
+      <c r="F28">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
@@ -5125,6 +5131,9 @@
       <c r="E29" t="s">
         <v>406</v>
       </c>
+      <c r="F29">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
@@ -5142,6 +5151,9 @@
       <c r="E30" t="s">
         <v>406</v>
       </c>
+      <c r="F30">
+        <v>17</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
@@ -5159,6 +5171,9 @@
       <c r="E31" t="s">
         <v>406</v>
       </c>
+      <c r="F31">
+        <v>17</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
@@ -5175,6 +5190,9 @@
       </c>
       <c r="E32" t="s">
         <v>406</v>
+      </c>
+      <c r="F32">
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -5562,12 +5580,12 @@
       </c>
       <c r="D55" s="1">
         <f>COUNTIF(Python!D3:D54,Playlist!$I$5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D54 D56:D1048576 E2:F2">
+  <conditionalFormatting sqref="E2:F2 D2:D54 D56:D1048576">
     <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="Start">
       <formula>NOT(ISERROR(SEARCH("Start",D2)))</formula>
     </cfRule>
@@ -5582,7 +5600,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Progress Tracker" prompt="This cell is to track the set of videos completed._x000a_" xr:uid="{BA437ABB-A94D-43F5-8F94-CBC0657F53BC}">
           <x14:formula1>
             <xm:f>Playlist!$I$2:$I$5</xm:f>

--- a/Data Science Journey Tracker.xlsx
+++ b/Data Science Journey Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PA\Documents\datascience\datascience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7DFF98-B19D-42B6-9724-EFDA4BA98EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC6C2E7-D9D4-4510-B232-6F1C88A11947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12210" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4FEAEA80-D5A9-4F4F-8015-98DD1BB07A66}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{4FEAEA80-D5A9-4F4F-8015-98DD1BB07A66}"/>
   </bookViews>
   <sheets>
     <sheet name="Playlist" sheetId="5" r:id="rId1"/>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="E2" s="2">
         <f ca="1">POA!M3</f>
-        <v>708.5</v>
+        <v>708.49999999999977</v>
       </c>
       <c r="F2" s="2">
         <f ca="1">ROUND(E2/60,2)</f>
@@ -3775,11 +3775,11 @@
       </c>
       <c r="B3" s="11">
         <f ca="1">COUNTIF(INDIRECT("'"&amp;$A3&amp;"'!$D:$D"),B$1)</f>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" s="11">
         <f ca="1">SUMIF(INDIRECT("'"&amp;$A3&amp;"'!$D:$D"),B$1,INDIRECT("'"&amp;$A3&amp;"'!$C:$C"))</f>
-        <v>617.1</v>
+        <v>544.0999999999998</v>
       </c>
       <c r="D3" s="11">
         <f ca="1">COUNTIF(INDIRECT("'"&amp;$A3&amp;"'!$D:$D"),D$1)</f>
@@ -3799,19 +3799,19 @@
       </c>
       <c r="H3" s="11">
         <f ca="1">COUNTIF(INDIRECT("'"&amp;$A3&amp;"'!$D:$D"),H$1)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I3" s="11">
         <f ca="1">SUMIF(INDIRECT("'"&amp;$A3&amp;"'!$D:$D"),H$1,INDIRECT("'"&amp;$A3&amp;"'!$C:$C"))</f>
-        <v>91.4</v>
+        <v>164.4</v>
       </c>
       <c r="J3" s="11">
         <f t="shared" ref="J3:J11" ca="1" si="0">SUM(B3,D3)</f>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K3" s="11">
         <f t="shared" ref="K3:K11" ca="1" si="1">SUM(C3,E3)</f>
-        <v>617.1</v>
+        <v>544.0999999999998</v>
       </c>
       <c r="L3" s="11">
         <f t="shared" ref="L3:L8" ca="1" si="2">SUM(B3,D3,F3,H3)</f>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="M3" s="11">
         <f t="shared" ref="M3:M11" ca="1" si="3">SUM(C3,E3,I3)</f>
-        <v>708.5</v>
+        <v>708.49999999999977</v>
       </c>
       <c r="N3" s="11">
         <f ca="1">ROUND(M3/60,2)</f>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="O3" s="11">
         <f t="shared" ref="O3:O8" ca="1" si="4">ROUND(((H3+F3)/L3)*100,2)</f>
-        <v>9.6199999999999992</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4332,11 +4332,11 @@
       </c>
       <c r="B12" s="8">
         <f ca="1">SUM(B3:B11)</f>
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C12" s="8">
         <f t="shared" ref="C12:N12" ca="1" si="16">SUM(C3:C11)</f>
-        <v>8442.9</v>
+        <v>8369.8999999999978</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" ca="1" si="16"/>
@@ -4356,19 +4356,19 @@
       </c>
       <c r="H12" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>91.4</v>
+        <v>164.4</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>8442.9</v>
+        <v>8369.8999999999978</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" ca="1" si="16"/>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="O12" s="11">
         <f t="shared" ca="1" si="15"/>
-        <v>1.1299999999999999</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4549,7 +4549,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4706,7 +4706,7 @@
         <v>26.7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="E8" t="s">
         <v>405</v>
@@ -4726,7 +4726,7 @@
         <v>16.8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="E9" t="s">
         <v>405</v>
@@ -4746,7 +4746,7 @@
         <v>29.5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="E10" t="s">
         <v>405</v>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="D55" s="1">
         <f>COUNTIF(Python!D3:D54,Playlist!$I$5)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -6082,7 +6082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3FFC70-AEF8-4F32-A6C4-A57890A18299}">
   <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
